--- a/evaluation/results/hybrid/pca/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="C2">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="D2">
-        <v>0.09550561797752809</v>
+        <v>0.8239700374531835</v>
       </c>
       <c r="E2">
-        <v>0.1619047619047619</v>
+        <v>0.7108239095315024</v>
       </c>
       <c r="F2">
-        <v>0.114247311827957</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="G2">
-        <v>0.09861668897813476</v>
+        <v>0.8140031307812723</v>
       </c>
       <c r="H2">
-        <v>0.5056179775280898</v>
+        <v>0.7019841770820182</v>
       </c>
       <c r="I2">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="K2">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="L2">
-        <v>483</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5030864197530864</v>
+        <v>0.7417582417582418</v>
       </c>
       <c r="C2">
-        <v>0.9157303370786517</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="D2">
-        <v>0.649402390438247</v>
+        <v>0.6013363028953229</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="C3">
-        <v>0.09550561797752809</v>
+        <v>0.8239700374531835</v>
       </c>
       <c r="D3">
-        <v>0.1619047619047619</v>
+        <v>0.7108239095315024</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="C4">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D4">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="E4">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5171682098765432</v>
+        <v>0.6833791208791209</v>
       </c>
       <c r="C5">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D5">
-        <v>0.4056535761715044</v>
+        <v>0.6560801062134127</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5171682098765432</v>
+        <v>0.6833791208791209</v>
       </c>
       <c r="C6">
-        <v>0.5056179775280899</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D6">
-        <v>0.4056535761715045</v>
+        <v>0.6560801062134127</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
